--- a/design/配置表/J_角色经验配置表.xlsx
+++ b/design/配置表/J_角色经验配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28215" windowHeight="11490" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="导出" sheetId="8" r:id="rId1"/>
@@ -101,9 +101,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -112,6 +112,17 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -122,21 +133,31 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,23 +168,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,32 +182,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,24 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,9 +220,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,13 +274,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -286,25 +284,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,157 +428,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,6 +475,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,45 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -569,6 +552,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -580,156 +578,159 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1052,7 +1053,7 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1075,13 +1076,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1133,13 +1134,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1152,15 +1153,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="E14 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
@@ -1181,324 +1182,100 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>3050</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
         <v>22</v>
-      </c>
-      <c r="B24">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>4550</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>4850</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>5150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>5450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>6050</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>6350</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>6650</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>6950</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>7250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>7550</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>7850</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>8150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>9700</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>11250</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>14350</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>15900</v>
       </c>
     </row>
   </sheetData>
